--- a/RK.xlsx
+++ b/RK.xlsx
@@ -1011,49 +1011,49 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B97" t="s" s="0">
         <v>7</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E97" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F97" s="0"/>
-      <c r="G97" s="0"/>
+      <c r="G97" t="s" s="0">
+        <v>19</v>
+      </c>
       <c r="H97" t="s" s="0">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I97" s="0"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B98" t="s" s="0">
         <v>7</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E98" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F98" s="0"/>
-      <c r="G98" t="s" s="0">
-        <v>19</v>
-      </c>
+      <c r="G98" s="0"/>
       <c r="H98" t="s" s="0">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I98" s="0"/>
     </row>

--- a/RK.xlsx
+++ b/RK.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="22">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
@@ -32,6 +32,9 @@
     <t>13:30</t>
   </si>
   <si>
+    <t>U3-4</t>
+  </si>
+  <si>
     <t>TYPE_COURS</t>
   </si>
   <si>
@@ -39,6 +42,9 @@
   </si>
   <si>
     <t>15:45</t>
+  </si>
+  <si>
+    <t>U3-Amphi</t>
   </si>
   <si>
     <t>TYPE_CONTROLE</t>
@@ -156,16 +162,18 @@
       <c r="E3" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F3" s="0"/>
+      <c r="F3" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G3" s="0"/>
       <c r="H3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>3</v>
@@ -174,15 +182,17 @@
         <v>4</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F4" s="0"/>
+      <c r="F4" t="s" s="0">
+        <v>10</v>
+      </c>
       <c r="G4" s="0"/>
       <c r="H4" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I4" s="0"/>
     </row>
@@ -199,7 +209,7 @@
         <v>45992.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -213,15 +223,17 @@
         <v>4</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F7" s="0"/>
+      <c r="F7" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G7" s="0"/>
       <c r="H7" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I7" s="0"/>
     </row>
@@ -236,15 +248,17 @@
         <v>4</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F8" s="0"/>
+      <c r="F8" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G8" s="0"/>
       <c r="H8" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I8" s="0"/>
     </row>
@@ -266,7 +280,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>3</v>
@@ -282,16 +296,16 @@
       </c>
       <c r="F11" s="0"/>
       <c r="G11" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>3</v>
@@ -307,10 +321,10 @@
       </c>
       <c r="F12" s="0"/>
       <c r="G12" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I12" s="0"/>
     </row>
@@ -319,12 +333,12 @@
         <v>46009.0</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>3</v>
@@ -340,16 +354,16 @@
       </c>
       <c r="F14" s="0"/>
       <c r="G14" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>3</v>
@@ -365,33 +379,35 @@
       </c>
       <c r="F15" s="0"/>
       <c r="G15" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s" s="0">
         <v>3</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F16" s="0"/>
+      <c r="F16" t="s" s="0">
+        <v>10</v>
+      </c>
       <c r="G16" s="0"/>
       <c r="H16" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I16" s="0"/>
     </row>

--- a/RK.xlsx
+++ b/RK.xlsx
@@ -17,7 +17,7 @@
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
-    <t>jeudi</t>
+    <t>lundi</t>
   </si>
   <si>
     <t>Réseaux d'opérateurs (KINX6AB1)</t>
@@ -32,7 +32,7 @@
     <t>TYPE_AUTRE</t>
   </si>
   <si>
-    <t>samedi</t>
+    <t>mercredi</t>
   </si>
   <si>
     <t>Réseaux d'opérateurs (KINX6AB1) /CC</t>
@@ -101,7 +101,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>45015.0</v>
+        <v>46111.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -130,7 +130,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n" s="1">
-        <v>45017.0</v>
+        <v>46113.0</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>6</v>
@@ -167,7 +167,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n" s="1">
-        <v>45066.0</v>
+        <v>46162.0</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>6</v>
